--- a/Productbacklog_group84_V2.xlsx
+++ b/Productbacklog_group84_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\data@2024spring\Software Enginnering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyuh\Documents\GitHub\SE-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC8D455B-E02E-4857-BC20-BFF660FFAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798299BB-B47E-4FF3-9A94-FBF6E2713A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="21820" windowHeight="37900"/>
+    <workbookView xWindow="26010" yWindow="12950" windowWidth="16130" windowHeight="20990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Story ID</t>
   </si>
@@ -117,29 +117,6 @@
 2. Children's accounts can view the added goals.</t>
   </si>
   <si>
-    <t>Password Change</t>
-  </si>
-  <si>
-    <t>As a user, I want to change my password so that I can maintain the security of my account.</t>
-  </si>
-  <si>
-    <t>1. User can authenticate using personal info to change the password._x000D_
-2. System does not reveal the old password.</t>
-  </si>
-  <si>
-    <t>Password Hashing</t>
-  </si>
-  <si>
-    <t>As a developer, I want to use hash to store passwords so that the safety and security of user data is ensured.</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>1. Passwords are stored as hash codes for security._x000D_
-2. Hashing algorithm is implemented correctly.</t>
-  </si>
-  <si>
     <t>Graphical User Interface (GUI)</t>
   </si>
   <si>
@@ -148,26 +125,6 @@
   <si>
     <t>1. GUI is user-friendly and accessible to children._x000D_
 2. All functionalities are accessible through the GUI.</t>
-  </si>
-  <si>
-    <t>Virtual Currency Transfer</t>
-  </si>
-  <si>
-    <t>As a user, I want to transfer virtual currency so that I can share and manage finances within the family.</t>
-  </si>
-  <si>
-    <t>1. Users can input numbers to make a transfer._x000D_
-2. Transfer is recorded and can be viewed by all parties.</t>
-  </si>
-  <si>
-    <t>Family Group Savings</t>
-  </si>
-  <si>
-    <t>As a family, I want to form groups to save money together so that we can pool resources and achieve financial goals.</t>
-  </si>
-  <si>
-    <t>1. Ability to create and join family groups._x000D_
-2. Group members can see each other's contributions and savings goals.</t>
   </si>
   <si>
     <t>Demand and Fixed Deposits</t>
@@ -186,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,19 +1212,19 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="2">
-        <v>45366</v>
+        <v>45383</v>
       </c>
       <c r="I8" s="2">
-        <v>45371</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,121 +1238,33 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="2">
-        <v>45371</v>
+        <v>45413</v>
       </c>
       <c r="I9" s="2">
-        <v>45382</v>
+        <v>45427</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45383</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45413</v>
-      </c>
-    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45383</v>
-      </c>
-      <c r="I11" s="2">
-        <v>45413</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45383</v>
-      </c>
-      <c r="I12" s="2">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45413</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
